--- a/тимп _для_ценителей.xlsx
+++ b/тимп _для_ценителей.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>com</t>
   </si>
@@ -262,6 +262,21 @@
     <t>ls выведет</t>
   </si>
   <si>
+    <t>alias edit=</t>
+  </si>
+  <si>
+    <t>//создание псевдонима команды</t>
+  </si>
+  <si>
+    <t>touch</t>
+  </si>
+  <si>
+    <t>//создать документ</t>
+  </si>
+  <si>
+    <t>создать файл</t>
+  </si>
+  <si>
     <t>echo</t>
   </si>
   <si>
@@ -342,6 +357,227 @@
     <t>source выполнит содержание файла</t>
   </si>
   <si>
+    <t xml:space="preserve">nm </t>
+  </si>
+  <si>
+    <t>выводит информацию о файлах</t>
+  </si>
+  <si>
+    <t>grep</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ищет паттерн в файле</t>
+  </si>
+  <si>
+    <t>ar rvc</t>
+  </si>
+  <si>
+    <t>архивируем файл</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>определяет тип файла</t>
+  </si>
+  <si>
+    <t>g++</t>
+  </si>
+  <si>
+    <t>//компилируем файл</t>
+  </si>
+  <si>
+    <t>cmake -H. -B_build</t>
+  </si>
+  <si>
+    <t>//подготовливаеи процесс построения проекта, проверяем работоспособность и записываем результат в файл</t>
+  </si>
+  <si>
+    <t>cmake --build _build</t>
+  </si>
+  <si>
+    <t>// создаем бинарное дерево сгенерированного cmake'ом проекта</t>
+  </si>
+  <si>
+    <t>./</t>
+  </si>
+  <si>
+    <t>// запускаем программу</t>
+  </si>
+  <si>
+    <t>-DCMAKE_INSTALL_PREFIX=_install</t>
+  </si>
+  <si>
+    <t>- создаем имя для комманды</t>
+  </si>
+  <si>
+    <t>--target</t>
+  </si>
+  <si>
+    <t>--target построить install вместо целей по умолчанию</t>
+  </si>
+  <si>
+    <t>popd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">Изменяет текущий в каталог на каталог, сохраненный командой </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="13"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>pushd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>pushd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">Сохраняет имя текущего каталога для команды </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="13"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>popd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> и переходит в другой каталог.</t>
+    </r>
+  </si>
+  <si>
+    <t>travis login --github-token ${GITHUB_TOKEN}</t>
+  </si>
+  <si>
+    <t>//логин в травис с помощью полученного ранее токена</t>
+  </si>
+  <si>
+    <t>travis lint</t>
+  </si>
+  <si>
+    <t>//проверяет файл на предмет возможных ошибок</t>
+  </si>
+  <si>
+    <t>travis enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//подключаем травис к проекту из репозитория </t>
+  </si>
+  <si>
+    <t>travis repos</t>
+  </si>
+  <si>
+    <t>// вывод репозиториев, на которые у пользователя есть права</t>
+  </si>
+  <si>
+    <t>travis sync</t>
+  </si>
+  <si>
+    <t>//начинает синхрониацию с гит</t>
+  </si>
+  <si>
+    <t>travis whatsup</t>
+  </si>
+  <si>
+    <t>//выводит список последних сборок</t>
+  </si>
+  <si>
+    <t>travis branches</t>
+  </si>
+  <si>
+    <t>//выводит список последних сборок в каждой из веток</t>
+  </si>
+  <si>
+    <t>travis history</t>
+  </si>
+  <si>
+    <t>// выводит историю историю сборок проекта</t>
+  </si>
+  <si>
+    <t>travis show</t>
+  </si>
+  <si>
+    <t>//ваводит сборку или работу</t>
+  </si>
+  <si>
+    <t>travis accounts</t>
+  </si>
+  <si>
+    <t>//выводит аккаунтыи информацию о их подписке</t>
+  </si>
+  <si>
+    <t>rvm autolibs</t>
+  </si>
+  <si>
+    <t>//rvm - иструммент для управления версиями руби  //autolibs - "фича" в rvm преднозначеная для автоматической устаноки зависимостей</t>
+  </si>
+  <si>
+    <t>rvm use</t>
+  </si>
+  <si>
+    <t>//rvm - иструммент для управления версиями руби
+//устанавливаем версию для использования по использования</t>
+  </si>
+  <si>
+    <t>gem</t>
+  </si>
+  <si>
+    <t>//gem - менеджер пакедов для руби</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">\curl -sSL </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="13"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>https://get.rvm.io</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">//curl - инструмент для взаимодействия с серерами с синтаксисом URL // -ssl указывает на то чтобы использовался протокол ssl </t>
+  </si>
+  <si>
     <t>git coconfig</t>
   </si>
   <si>
@@ -451,12 +687,6 @@
     <t>автоматически извлекает и затем сливает данные из удалённой ветки в вашу текущую ветку</t>
   </si>
   <si>
-    <t>touch</t>
-  </si>
-  <si>
-    <t>создать файл</t>
-  </si>
-  <si>
     <t>git status</t>
   </si>
   <si>
@@ -533,250 +763,6 @@
   </si>
   <si>
     <t>remote - управление отслеживаемым репозиторием</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nm </t>
-  </si>
-  <si>
-    <t>выводит информацию о файлах</t>
-  </si>
-  <si>
-    <t>grep</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ищет паттерн в файле</t>
-  </si>
-  <si>
-    <t>ar rvc</t>
-  </si>
-  <si>
-    <t>архивируем файл</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>определяет тип файла</t>
-  </si>
-  <si>
-    <t>g++</t>
-  </si>
-  <si>
-    <t>//компилируем файл</t>
-  </si>
-  <si>
-    <t>cmake -H. -B_build</t>
-  </si>
-  <si>
-    <t>//подготовливаеи процесс построения проекта, проверяем работоспособность и записываем результат в файл</t>
-  </si>
-  <si>
-    <t>cmake --build _build</t>
-  </si>
-  <si>
-    <t>// создаем бинарное дерево сгенерированного cmake'ом проекта</t>
-  </si>
-  <si>
-    <t>./</t>
-  </si>
-  <si>
-    <t>// запускаем программу</t>
-  </si>
-  <si>
-    <t>-DCMAKE_INSTALL_PREFIX=_install</t>
-  </si>
-  <si>
-    <t>- создаем имя для комманды</t>
-  </si>
-  <si>
-    <t>--target</t>
-  </si>
-  <si>
-    <t>--target построить install вместо целей по умолчанию</t>
-  </si>
-  <si>
-    <t>popd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Изменяет текущий в каталог на каталог, сохраненный командой </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>pushd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>pushd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Сохраняет имя текущего каталога для команды </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>popd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve"> и переходит в другой каталог.</t>
-    </r>
-  </si>
-  <si>
-    <t>travis login --github-token ${GITHUB_TOKEN}</t>
-  </si>
-  <si>
-    <t>//логин в травис с помощью полученного ранее токена</t>
-  </si>
-  <si>
-    <t>travis lint</t>
-  </si>
-  <si>
-    <t>//проверяет файл на предмет возможных ошибок</t>
-  </si>
-  <si>
-    <t>travis enable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//подключаем травис к проекту из репозитория </t>
-  </si>
-  <si>
-    <t>travis repos</t>
-  </si>
-  <si>
-    <t>// вывод репозиториев, на которые у пользователя есть права</t>
-  </si>
-  <si>
-    <t>travis sync</t>
-  </si>
-  <si>
-    <t>//начинает синхрониацию с гит</t>
-  </si>
-  <si>
-    <t>travis whatsup</t>
-  </si>
-  <si>
-    <t>//выводит список последних сборок</t>
-  </si>
-  <si>
-    <t>travis branches</t>
-  </si>
-  <si>
-    <t>//выводит список последних сборок в каждой из веток</t>
-  </si>
-  <si>
-    <t>travis history</t>
-  </si>
-  <si>
-    <t>// выводит историю историю сборок проекта</t>
-  </si>
-  <si>
-    <t>travis show</t>
-  </si>
-  <si>
-    <t>//ваводит сборку или работу</t>
-  </si>
-  <si>
-    <t>travis accounts</t>
-  </si>
-  <si>
-    <t>//выводит аккаунтыи информацию о их подписке</t>
-  </si>
-  <si>
-    <t>rvm autolibs</t>
-  </si>
-  <si>
-    <t>//rvm - иструммент для управления версиями руби  //autolibs - "фича" в rvm преднозначеная для автоматической устаноки зависимостей</t>
-  </si>
-  <si>
-    <t>rvm use</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="16"/>
-        <rFont val="Menlo"/>
-      </rPr>
-      <t>//rvm - иструммент для управления версиями руби</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="16"/>
-        <rFont val="Menlo"/>
-      </rPr>
-      <t>//устанавливаем версию для использования по использования</t>
-    </r>
-  </si>
-  <si>
-    <t>gem</t>
-  </si>
-  <si>
-    <t>//gem - менеджер пакедов для руби</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="16"/>
-        <rFont val="Menlo"/>
-      </rPr>
-      <t xml:space="preserve">\curl -sSL </t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="16"/>
-        <rFont val="Menlo"/>
-      </rPr>
-      <t>https://get.rvm.io</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">//curl - инструмент для взаимодействия с серерами с синтаксисом URL // -ssl указывает на то чтобы использовался протокол ssl </t>
   </si>
 </sst>
 </file>
@@ -786,7 +772,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -803,14 +789,16 @@
       <name val="Avenir Next Medium"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="1"/>
+      <sz val="13"/>
       <color indexed="8"/>
-      <name val="Avenir Next Demi Bold"/>
+      <name val="Menlo"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="1"/>
+      <sz val="13"/>
       <color indexed="13"/>
-      <name val="Avenir Next Demi Bold"/>
+      <name val="Menlo"/>
     </font>
     <font>
       <sz val="13"/>
@@ -823,65 +811,9 @@
       <name val="Menlo"/>
     </font>
     <font>
+      <u val="single"/>
       <sz val="13"/>
       <color indexed="8"/>
-      <name val="Muna Regular"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="13"/>
-      <name val="Avenir Next"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Menlo"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="13"/>
-      <name val="Menlo"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="13"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Courier"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color indexed="13"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="13"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="11"/>
-      <color indexed="13"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="16"/>
-      <name val="Menlo"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color indexed="16"/>
       <name val="Menlo"/>
     </font>
   </fonts>
@@ -1018,7 +950,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1026,10 +958,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1049,79 +981,22 @@
     <xf numFmtId="49" fontId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1148,7 +1023,6 @@
       <rgbColor rgb="ff932092"/>
       <rgbColor rgb="ffadadad"/>
       <rgbColor rgb="fff4f9f7"/>
-      <rgbColor rgb="ff4e8087"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2249,7 +2123,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="68.25" customHeight="1"/>
-    <row r="2" ht="22.6" customHeight="1">
+    <row r="2" ht="23.6" customHeight="1">
       <c r="B2" t="s" s="2">
         <v>0</v>
       </c>
@@ -2312,10 +2186,10 @@
       </c>
     </row>
     <row r="10" ht="49.8" customHeight="1">
-      <c r="B10" t="s" s="10">
+      <c r="B10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="C10" t="s" s="11">
+      <c r="C10" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2359,7 +2233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" ht="64.6" customHeight="1">
+    <row r="16" ht="30.45" customHeight="1">
       <c r="B16" t="s" s="6">
         <v>27</v>
       </c>
@@ -2367,457 +2241,465 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="92.55" customHeight="1">
-      <c r="B17" t="s" s="12">
+    <row r="17" ht="23.75" customHeight="1">
+      <c r="B17" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="C17" t="s" s="13">
+    </row>
+    <row r="18" ht="43.95" customHeight="1">
+      <c r="B18" t="s" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" ht="22.75" customHeight="1">
-      <c r="B18" t="s" s="14">
+      <c r="C18" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="C18" t="s" s="15">
+    </row>
+    <row r="19" ht="74.7" customHeight="1">
+      <c r="B19" t="s" s="8">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" ht="23.75" customHeight="1">
-      <c r="B19" t="s" s="8">
+      <c r="C19" t="s" s="9">
         <v>33</v>
       </c>
-      <c r="C19" t="s" s="9">
+    </row>
+    <row r="20" ht="58.75" customHeight="1">
+      <c r="B20" t="s" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" ht="112.65" customHeight="1">
-      <c r="B20" t="s" s="6">
+      <c r="C20" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="C20" t="s" s="7">
+    </row>
+    <row r="21" ht="23.75" customHeight="1">
+      <c r="B21" t="s" s="8">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" ht="74.7" customHeight="1">
-      <c r="B21" t="s" s="8">
+      <c r="C21" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="C21" t="s" s="9">
+    </row>
+    <row r="22" ht="23.75" customHeight="1">
+      <c r="B22" t="s" s="6">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" ht="58.75" customHeight="1">
-      <c r="B22" t="s" s="6">
+      <c r="C22" t="s" s="7">
         <v>39</v>
-      </c>
-      <c r="C22" t="s" s="16">
-        <v>40</v>
       </c>
     </row>
     <row r="23" ht="23.75" customHeight="1">
       <c r="B23" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s" s="9">
         <v>41</v>
-      </c>
-      <c r="C23" t="s" s="9">
-        <v>42</v>
       </c>
     </row>
     <row r="24" ht="23.75" customHeight="1">
       <c r="B24" t="s" s="6">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s" s="7">
         <v>43</v>
-      </c>
-      <c r="C24" t="s" s="7">
-        <v>44</v>
       </c>
     </row>
     <row r="25" ht="23.75" customHeight="1">
       <c r="B25" t="s" s="8">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s" s="9">
         <v>45</v>
-      </c>
-      <c r="C25" t="s" s="9">
-        <v>46</v>
       </c>
     </row>
     <row r="26" ht="23.75" customHeight="1">
       <c r="B26" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s" s="7">
         <v>47</v>
-      </c>
-      <c r="C26" t="s" s="7">
-        <v>48</v>
       </c>
     </row>
     <row r="27" ht="23.75" customHeight="1">
       <c r="B27" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s" s="9">
         <v>49</v>
       </c>
-      <c r="C27" t="s" s="9">
+    </row>
+    <row r="28" ht="23.75" customHeight="1">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" ht="23.75" customHeight="1">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" ht="23.75" customHeight="1">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" ht="23.75" customHeight="1">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" ht="23.75" customHeight="1">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" ht="23.75" customHeight="1">
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" ht="23.75" customHeight="1">
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" ht="23.75" customHeight="1">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" ht="23.75" customHeight="1">
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" ht="23.75" customHeight="1">
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" ht="23.75" customHeight="1">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" ht="23.75" customHeight="1">
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" ht="23.75" customHeight="1">
+      <c r="B40" t="s" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" ht="40.75" customHeight="1">
-      <c r="B28" t="s" s="17">
+      <c r="C40" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="C28" t="s" s="16">
+    </row>
+    <row r="41" ht="23.75" customHeight="1">
+      <c r="B41" t="s" s="8">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" ht="23.75" customHeight="1">
-      <c r="B29" t="s" s="8">
+      <c r="C41" t="s" s="9">
         <v>53</v>
       </c>
-      <c r="C29" t="s" s="9">
+    </row>
+    <row r="42" ht="23.75" customHeight="1">
+      <c r="B42" t="s" s="6">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" ht="23.75" customHeight="1">
-      <c r="B30" t="s" s="6">
+      <c r="C42" t="s" s="7">
         <v>55</v>
       </c>
-      <c r="C30" t="s" s="7">
+    </row>
+    <row r="43" ht="23.75" customHeight="1">
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" ht="23.75" customHeight="1">
+      <c r="B44" t="s" s="6">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" ht="22.75" customHeight="1">
-      <c r="B31" t="s" s="12">
+      <c r="C44" t="s" s="7">
         <v>57</v>
       </c>
-      <c r="C31" t="s" s="13">
+    </row>
+    <row r="45" ht="23.75" customHeight="1">
+      <c r="B45" t="s" s="8">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" ht="23.75" customHeight="1">
-      <c r="B32" t="s" s="6">
+      <c r="C45" t="s" s="9">
         <v>59</v>
       </c>
-      <c r="C32" t="s" s="7">
+    </row>
+    <row r="46" ht="23.75" customHeight="1">
+      <c r="B46" t="s" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" ht="23.75" customHeight="1">
-      <c r="B33" t="s" s="8">
+      <c r="C46" t="s" s="7">
         <v>61</v>
       </c>
-      <c r="C33" t="s" s="9">
+    </row>
+    <row r="47" ht="23.75" customHeight="1">
+      <c r="B47" t="s" s="8">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" ht="26.2" customHeight="1">
-      <c r="B34" t="s" s="6">
+      <c r="C47" t="s" s="9">
         <v>63</v>
       </c>
-      <c r="C34" t="s" s="18">
+    </row>
+    <row r="48" ht="38.75" customHeight="1">
+      <c r="B48" t="s" s="6">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" ht="23.75" customHeight="1">
-      <c r="B35" t="s" s="8">
+      <c r="C48" t="s" s="7">
         <v>65</v>
       </c>
-      <c r="C35" t="s" s="13">
+    </row>
+    <row r="49" ht="23.75" customHeight="1">
+      <c r="B49" t="s" s="8">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" ht="23.75" customHeight="1">
-      <c r="B36" t="s" s="6">
+      <c r="C49" t="s" s="9">
         <v>67</v>
       </c>
-      <c r="C36" t="s" s="15">
+    </row>
+    <row r="50" ht="23.75" customHeight="1">
+      <c r="B50" t="s" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" ht="23.75" customHeight="1">
-      <c r="B37" t="s" s="8">
+      <c r="C50" t="s" s="7">
         <v>69</v>
       </c>
-      <c r="C37" t="s" s="9">
+    </row>
+    <row r="51" ht="23.75" customHeight="1">
+      <c r="B51" t="s" s="8">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" ht="22.75" customHeight="1">
-      <c r="B38" t="s" s="14">
+      <c r="C51" t="s" s="9">
         <v>71</v>
       </c>
-      <c r="C38" t="s" s="15">
+    </row>
+    <row r="52" ht="23.75" customHeight="1">
+      <c r="B52" t="s" s="6">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" ht="22.75" customHeight="1">
-      <c r="B39" t="s" s="12">
+      <c r="C52" t="s" s="7">
         <v>73</v>
       </c>
-      <c r="C39" t="s" s="13">
+    </row>
+    <row r="53" ht="23.75" customHeight="1">
+      <c r="B53" t="s" s="8">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" ht="22.75" customHeight="1">
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-    </row>
-    <row r="41" ht="22.75" customHeight="1">
-      <c r="B41" t="s" s="12">
+      <c r="C53" t="s" s="9">
         <v>75</v>
       </c>
-      <c r="C41" t="s" s="13">
+    </row>
+    <row r="54" ht="23.75" customHeight="1">
+      <c r="B54" t="s" s="6">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" ht="22.75" customHeight="1">
-      <c r="B42" t="s" s="14">
+      <c r="C54" t="s" s="7">
         <v>77</v>
       </c>
-      <c r="C42" t="s" s="15">
+    </row>
+    <row r="55" ht="23.75" customHeight="1">
+      <c r="B55" t="s" s="8">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" ht="23.75" customHeight="1">
-      <c r="B43" t="s" s="8">
+      <c r="C55" t="s" s="9">
         <v>79</v>
       </c>
-      <c r="C43" t="s" s="21">
+    </row>
+    <row r="56" ht="23.75" customHeight="1">
+      <c r="B56" t="s" s="6">
         <v>80</v>
       </c>
-    </row>
-    <row r="44" ht="22.75" customHeight="1">
-      <c r="B44" t="s" s="14">
+      <c r="C56" t="s" s="7">
         <v>81</v>
       </c>
-      <c r="C44" t="s" s="22">
+    </row>
+    <row r="57" ht="23.75" customHeight="1">
+      <c r="B57" t="s" s="8">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" ht="36.75" customHeight="1">
-      <c r="B45" t="s" s="23">
+      <c r="C57" t="s" s="9">
         <v>83</v>
       </c>
-      <c r="C45" t="s" s="24">
+    </row>
+    <row r="58" ht="23.75" customHeight="1">
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" ht="23.75" customHeight="1">
+      <c r="B59" s="12"/>
+      <c r="C59" s="13"/>
+    </row>
+    <row r="60" ht="38.75" customHeight="1">
+      <c r="B60" t="s" s="6">
         <v>84</v>
       </c>
-    </row>
-    <row r="46" ht="22.75" customHeight="1">
-      <c r="B46" t="s" s="14">
+      <c r="C60" t="s" s="7">
         <v>85</v>
       </c>
-      <c r="C46" t="s" s="15">
+    </row>
+    <row r="61" ht="38.75" customHeight="1">
+      <c r="B61" t="s" s="8">
         <v>86</v>
       </c>
-    </row>
-    <row r="47" ht="22.75" customHeight="1">
-      <c r="B47" t="s" s="23">
+      <c r="C61" t="s" s="9">
         <v>87</v>
       </c>
-      <c r="C47" t="s" s="24">
+    </row>
+    <row r="62" ht="23.75" customHeight="1">
+      <c r="B62" t="s" s="6">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" ht="22.75" customHeight="1">
-      <c r="B48" t="s" s="25">
+      <c r="C62" t="s" s="7">
         <v>89</v>
       </c>
-      <c r="C48" t="s" s="15">
+    </row>
+    <row r="63" ht="38.75" customHeight="1">
+      <c r="B63" t="s" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" ht="22.75" customHeight="1">
-      <c r="B49" t="s" s="23">
+      <c r="C63" t="s" s="9">
         <v>91</v>
       </c>
-      <c r="C49" t="s" s="24">
+    </row>
+    <row r="64" ht="23.75" customHeight="1">
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+    </row>
+    <row r="65" ht="23.75" customHeight="1">
+      <c r="B65" s="12"/>
+      <c r="C65" s="13"/>
+    </row>
+    <row r="66" ht="98.75" customHeight="1">
+      <c r="B66" t="s" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" ht="22.75" customHeight="1">
-      <c r="B50" t="s" s="25">
+      <c r="C66" t="s" s="7">
         <v>93</v>
       </c>
-      <c r="C50" t="s" s="26">
+    </row>
+    <row r="67" ht="38.75" customHeight="1">
+      <c r="B67" t="s" s="8">
         <v>94</v>
       </c>
-    </row>
-    <row r="51" ht="22.75" customHeight="1">
-      <c r="B51" t="s" s="23">
+      <c r="C67" t="s" s="9">
         <v>95</v>
       </c>
-      <c r="C51" t="s" s="24">
+    </row>
+    <row r="68" ht="23.75" customHeight="1">
+      <c r="B68" t="s" s="6">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" ht="22.75" customHeight="1">
-      <c r="B52" t="s" s="25">
+      <c r="C68" t="s" s="7">
         <v>97</v>
       </c>
-      <c r="C52" t="s" s="27">
+    </row>
+    <row r="69" ht="23.75" customHeight="1">
+      <c r="B69" t="s" s="8">
         <v>98</v>
       </c>
-    </row>
-    <row r="53" ht="22.75" customHeight="1">
-      <c r="B53" t="s" s="23">
+      <c r="C69" t="s" s="9">
         <v>99</v>
       </c>
-      <c r="C53" t="s" s="24">
+    </row>
+    <row r="70" ht="23.75" customHeight="1">
+      <c r="B70" t="s" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" ht="22.75" customHeight="1">
-      <c r="B54" t="s" s="25">
+      <c r="C70" t="s" s="7">
         <v>101</v>
       </c>
-      <c r="C54" t="s" s="26">
+    </row>
+    <row r="71" ht="23.75" customHeight="1">
+      <c r="B71" t="s" s="8">
         <v>102</v>
       </c>
-    </row>
-    <row r="55" ht="22.75" customHeight="1">
-      <c r="B55" s="28"/>
-      <c r="C55" s="29"/>
-    </row>
-    <row r="56" ht="22.75" customHeight="1">
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-    </row>
-    <row r="57" ht="36.75" customHeight="1">
-      <c r="B57" t="s" s="23">
+      <c r="C71" t="s" s="9">
         <v>103</v>
       </c>
-      <c r="C57" t="s" s="24">
+    </row>
+    <row r="72" ht="23.75" customHeight="1">
+      <c r="B72" t="s" s="6">
         <v>104</v>
       </c>
-    </row>
-    <row r="58" ht="36.75" customHeight="1">
-      <c r="B58" t="s" s="25">
+      <c r="C72" t="s" s="7">
         <v>105</v>
       </c>
-      <c r="C58" t="s" s="30">
+    </row>
+    <row r="73" ht="38.75" customHeight="1">
+      <c r="B73" t="s" s="8">
         <v>106</v>
       </c>
-    </row>
-    <row r="59" ht="22.75" customHeight="1">
-      <c r="B59" t="s" s="23">
+      <c r="C73" t="s" s="9">
         <v>107</v>
       </c>
-      <c r="C59" t="s" s="24">
+    </row>
+    <row r="74" ht="23.75" customHeight="1">
+      <c r="B74" t="s" s="6">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" ht="36.75" customHeight="1">
-      <c r="B60" t="s" s="25">
+      <c r="C74" t="s" s="7">
         <v>109</v>
       </c>
-      <c r="C60" t="s" s="15">
+    </row>
+    <row r="75" ht="23.75" customHeight="1">
+      <c r="B75" t="s" s="8">
         <v>110</v>
       </c>
-    </row>
-    <row r="61" ht="22.75" customHeight="1">
-      <c r="B61" s="31"/>
-      <c r="C61" s="32"/>
-    </row>
-    <row r="62" ht="22.75" customHeight="1">
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-    </row>
-    <row r="63" ht="22.75" customHeight="1">
-      <c r="B63" s="31"/>
-      <c r="C63" s="32"/>
-    </row>
-    <row r="64" ht="22.75" customHeight="1">
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-    </row>
-    <row r="65" ht="22.75" customHeight="1">
-      <c r="B65" s="31"/>
-      <c r="C65" s="32"/>
-    </row>
-    <row r="66" ht="22.75" customHeight="1">
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
-    </row>
-    <row r="67" ht="22.75" customHeight="1">
-      <c r="B67" s="31"/>
-      <c r="C67" s="32"/>
-    </row>
-    <row r="68" ht="22.75" customHeight="1">
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-    </row>
-    <row r="69" ht="22.75" customHeight="1">
-      <c r="B69" s="31"/>
-      <c r="C69" s="32"/>
-    </row>
-    <row r="70" ht="22.75" customHeight="1">
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-    </row>
-    <row r="71" ht="22.75" customHeight="1">
-      <c r="B71" s="31"/>
-      <c r="C71" s="32"/>
-    </row>
-    <row r="72" ht="22.75" customHeight="1">
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
-    </row>
-    <row r="73" ht="22.75" customHeight="1">
-      <c r="B73" s="31"/>
-      <c r="C73" s="32"/>
-    </row>
-    <row r="74" ht="22.75" customHeight="1">
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-    </row>
-    <row r="75" ht="22.75" customHeight="1">
-      <c r="B75" s="31"/>
-      <c r="C75" s="32"/>
-    </row>
-    <row r="76" ht="22.75" customHeight="1">
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
-    </row>
-    <row r="77" ht="22.75" customHeight="1">
-      <c r="B77" s="31"/>
-      <c r="C77" s="32"/>
-    </row>
-    <row r="78" ht="22.75" customHeight="1">
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
-    </row>
-    <row r="79" ht="22.75" customHeight="1">
-      <c r="B79" s="31"/>
-      <c r="C79" s="32"/>
-    </row>
-    <row r="80" ht="22.75" customHeight="1">
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
-    </row>
-    <row r="81" ht="22.75" customHeight="1">
-      <c r="B81" s="31"/>
-      <c r="C81" s="32"/>
-    </row>
-    <row r="82" ht="22.75" customHeight="1">
-      <c r="B82" s="19"/>
-      <c r="C82" s="20"/>
-    </row>
-    <row r="83" ht="22.75" customHeight="1">
-      <c r="B83" s="31"/>
-      <c r="C83" s="32"/>
-    </row>
-    <row r="84" ht="22.75" customHeight="1">
-      <c r="B84" s="19"/>
-      <c r="C84" s="20"/>
-    </row>
-    <row r="85" ht="22.75" customHeight="1">
-      <c r="B85" s="31"/>
-      <c r="C85" s="32"/>
-    </row>
-    <row r="86" ht="22.75" customHeight="1">
-      <c r="B86" s="19"/>
-      <c r="C86" s="20"/>
-    </row>
-    <row r="87" ht="22.5" customHeight="1">
-      <c r="B87" s="33"/>
-      <c r="C87" s="34"/>
+      <c r="C75" t="s" s="9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" ht="23.75" customHeight="1">
+      <c r="B76" t="s" s="6">
+        <v>112</v>
+      </c>
+      <c r="C76" t="s" s="7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" ht="23.75" customHeight="1">
+      <c r="B77" s="12"/>
+      <c r="C77" s="13"/>
+    </row>
+    <row r="78" ht="23.75" customHeight="1">
+      <c r="B78" s="10"/>
+      <c r="C78" s="11"/>
+    </row>
+    <row r="79" ht="23.75" customHeight="1">
+      <c r="B79" s="12"/>
+      <c r="C79" s="13"/>
+    </row>
+    <row r="80" ht="23.75" customHeight="1">
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
+    </row>
+    <row r="81" ht="23.75" customHeight="1">
+      <c r="B81" s="12"/>
+      <c r="C81" s="13"/>
+    </row>
+    <row r="82" ht="23.75" customHeight="1">
+      <c r="B82" s="10"/>
+      <c r="C82" s="11"/>
+    </row>
+    <row r="83" ht="23.75" customHeight="1">
+      <c r="B83" s="12"/>
+      <c r="C83" s="13"/>
+    </row>
+    <row r="84" ht="23.75" customHeight="1">
+      <c r="B84" s="10"/>
+      <c r="C84" s="11"/>
+    </row>
+    <row r="85" ht="23.75" customHeight="1">
+      <c r="B85" s="12"/>
+      <c r="C85" s="13"/>
+    </row>
+    <row r="86" ht="23.75" customHeight="1">
+      <c r="B86" s="10"/>
+      <c r="C86" s="11"/>
+    </row>
+    <row r="87" ht="23.5" customHeight="1">
+      <c r="B87" s="14"/>
+      <c r="C87" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B60" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="B63" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/тимп _для_ценителей.xlsx
+++ b/тимп _для_ценителей.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>com</t>
   </si>
@@ -763,6 +763,15 @@
   </si>
   <si>
     <t>remote - управление отслеживаемым репозиторием</t>
+  </si>
+  <si>
+    <t>gistup</t>
+  </si>
+  <si>
+    <t>//создать гист</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //вывести историю изменений</t>
   </si>
 </sst>
 </file>
@@ -2654,12 +2663,20 @@
       </c>
     </row>
     <row r="77" ht="23.75" customHeight="1">
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
+      <c r="B77" t="s" s="8">
+        <v>114</v>
+      </c>
+      <c r="C77" t="s" s="9">
+        <v>115</v>
+      </c>
     </row>
     <row r="78" ht="23.75" customHeight="1">
-      <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
+      <c r="B78" t="s" s="6">
+        <v>108</v>
+      </c>
+      <c r="C78" t="s" s="7">
+        <v>116</v>
+      </c>
     </row>
     <row r="79" ht="23.75" customHeight="1">
       <c r="B79" s="12"/>
